--- a/frontend/cypress/downloads/sample_test_bpi_result.xlsx
+++ b/frontend/cypress/downloads/sample_test_bpi_result.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="BPI Result" sheetId="1" r:id="rId1"/>
+    <sheet name="BPI Answered" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,90 +398,2783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>category</v>
+      </c>
+      <c r="B1" t="str">
+        <v>count</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>ALIENATION</v>
       </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>ANXIETY</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>DENIAL</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>DEPRESSION</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>DEVIATON</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>HYPOCHONDRIASIS</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>IMPULSE_EXPRESSION</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>INTERPERSONAL_PROBLEMS</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>PERSECUTORY_IDEAS</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>SELF_DEPRECIATION</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>SOCIAL_INTROVERSION</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>THINKING_DISORDER</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C241"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>index</v>
+      </c>
       <c r="B1" t="str">
-        <v>ANXIETY</v>
+        <v>questions</v>
       </c>
       <c r="C1" t="str">
-        <v>DENIAL</v>
-      </c>
-      <c r="D1" t="str">
-        <v>DEPRESSION</v>
-      </c>
-      <c r="E1" t="str">
-        <v>DEVIATON</v>
-      </c>
-      <c r="F1" t="str">
-        <v>HYPOCHONDRIASIS</v>
-      </c>
-      <c r="G1" t="str">
-        <v>IMPULSE_EXPRESSION</v>
-      </c>
-      <c r="H1" t="str">
-        <v>INTERPERSONAL_PROBLEMS</v>
-      </c>
-      <c r="I1" t="str">
-        <v>PERSECUTORY_IDEAS</v>
-      </c>
-      <c r="J1" t="str">
-        <v>SELF_DEPRECIATION</v>
-      </c>
-      <c r="K1" t="str">
-        <v>SOCIAL_INTROVERSION</v>
-      </c>
-      <c r="L1" t="str">
-        <v>THINKING_DISORDER</v>
+        <v>answer</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v xml:space="preserve">It's easy for me to keep fit and healthy. </v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v xml:space="preserve">My present situation is hopeless. </v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v xml:space="preserve">I care about what other people think of me. </v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v xml:space="preserve">Sometimes I feel like smashing things. </v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve">I would enjoy betting on horses. </v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v xml:space="preserve">No one is making things work out badly for me. </v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v xml:space="preserve">I feel frightened when I have to go out alone. </v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v xml:space="preserve">I never have visions in which imaginary people or things appear. </v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v xml:space="preserve">Many times I act without thinking. </v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v xml:space="preserve">I enjoy being with people. </v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v xml:space="preserve">I have given up hope of ever amounting to anything. </v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v xml:space="preserve">I frequently think of the same silly thing over and over for hours. </v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v xml:space="preserve">Sometimes my legs lose their strength so that I can't walk. </v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B15" t="str">
+        <v xml:space="preserve">I rarely feel disappointed. </v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
+      <c r="B16" t="str">
+        <v xml:space="preserve">Very few things excite me. </v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v xml:space="preserve">I would never intentionally hurt someone's feelings. </v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v xml:space="preserve">For the most part people are honest. </v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
+      <c r="B19" t="str">
+        <v xml:space="preserve">Someone has stolen my free will. </v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v xml:space="preserve">Even at the end of a hard day, I remain relaxed and at ease. </v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <v>16</v>
+      <c r="B21" t="str">
+        <v xml:space="preserve">I seem to hear an unknown voice wherever I go. </v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v xml:space="preserve">I would not do something foolhardy just for the fun of it. </v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v xml:space="preserve">I keep my distance from other people. </v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v xml:space="preserve">I deserve my share of good luck. </v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v xml:space="preserve">There have been days when I have done things without being able to recall anything at all about them. </v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v xml:space="preserve">I am free of aches and pains. </v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v xml:space="preserve">There is not much to be interested in anymore. </v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v xml:space="preserve">Some movies make me quite happy or sad. </v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v xml:space="preserve">No one gets away with insulting me. </v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v xml:space="preserve">I have been in trouble with the law more than once. </v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v xml:space="preserve">I rarely feel that someone is trying to get the best of me. </v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v xml:space="preserve">Although I really try, I cannot stop feeling tense. </v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v xml:space="preserve">I do not experience peculiar voices warning me of danger. </v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v xml:space="preserve">I often behave in a reckless manner. </v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v xml:space="preserve">I like to speak to strangers. </v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v xml:space="preserve">I am only suited for the lowest and most simple sort of work. </v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v xml:space="preserve">I sometimes have fits and seizures that I cannot control. </v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v xml:space="preserve">My stomach is easily upset. </v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v xml:space="preserve">My future is cheery. </v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v xml:space="preserve">I would not be tempted by a promise of getting something for nothing. </v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v xml:space="preserve">I can get along quite well with irritable people. </v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v xml:space="preserve">No matter how easy or safe it was, I would never steal money. </v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v xml:space="preserve">I can tell that someone has searched through my possessions a number of times. </v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v xml:space="preserve">I remain quite cool when things go badly. </v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v xml:space="preserve">Fancy colored lights sometimes float through my brain. </v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v xml:space="preserve">Ideas do not race through my head faster than I can speak them. </v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v xml:space="preserve">Most of the time I prefer to be alone. </v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v xml:space="preserve">I am the type of person who can be relied upon. </v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v xml:space="preserve">I don't think my life is worth living. </v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v xml:space="preserve">I seldom have any bodily discomfort. </v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v xml:space="preserve">I live a gloomy and boring life. </v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <v xml:space="preserve">At times I say things about my friends that aren't nice. </v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <v xml:space="preserve">If someone does something I dislike, I usually tell that person about it. </v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <v xml:space="preserve">I would enjoy cheating certain people. </v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <v xml:space="preserve">I never have the feeling that someone is out to do away with me. </v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <v xml:space="preserve">It frightens me to think about things that bother me. </v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <v xml:space="preserve">Ordinary things never appear "foggy" or far away to me. </v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <v xml:space="preserve">Sometimes I suddenly get up and act without warning or reason. </v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <v xml:space="preserve">I would rather work with a group of people than by myself. </v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <v xml:space="preserve">I am no good to anyone. </v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <v xml:space="preserve">I have nightmares almost every night. </v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <v xml:space="preserve">My skin is often red and inflamed. </v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <v xml:space="preserve">I enjoy just about everything I do. </v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <v xml:space="preserve">I never weep or feel like weeping. </v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="str">
+        <v xml:space="preserve">I don't mind having someone tell me what to do. </v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="str">
+        <v xml:space="preserve">I know of no excuse for taking advantage of someone of the opposite sex. </v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="str">
+        <v xml:space="preserve">I feel that I am in great danger from those who wish to harm me. </v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="str">
+        <v xml:space="preserve">Other people's actions rarely make me anxious. </v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="str">
+        <v xml:space="preserve">I sometimes hear voices which no one else understands. </v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="str">
+        <v xml:space="preserve">I am careful in almost everything I do. </v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="str">
+        <v xml:space="preserve">I try not to get involved in conversations with others. </v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="str">
+        <v xml:space="preserve">I think my parents would have reason to be proud of me. </v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="str">
+        <v xml:space="preserve">I have strange fears of places and things. </v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="str">
+        <v xml:space="preserve">My back does not bother me. </v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="str">
+        <v xml:space="preserve">Others seem to lead happier lives than I do. </v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="str">
+        <v xml:space="preserve">I can remember a few unpleasant things about my childhood. </v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="str">
+        <v xml:space="preserve">Slow people make me angry. </v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="str">
+        <v xml:space="preserve">I think that I could commit a crime and get away with it. </v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="str">
+        <v xml:space="preserve">I rarely feel that people look for my weaknesses. </v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="str">
+        <v xml:space="preserve">I worry when a train or bus is late. </v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="str">
+        <v xml:space="preserve">I never confuse my own thoughts with a real person talking to me. </v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="str">
+        <v xml:space="preserve">I'll try almost anything regardless of the consequences. </v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="str">
+        <v xml:space="preserve">I have a number of close friends.. </v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="str">
+        <v xml:space="preserve">My whole life is one big mistake. </v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="str">
+        <v xml:space="preserve">I have periods when my mind races ahead so fast that I cannot think clearly. </v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="str">
+        <v xml:space="preserve">Whenever I am worried about something I get cramps. </v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="str">
+        <v xml:space="preserve">I live a very satisfying and rewarding life. </v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="str">
+        <v xml:space="preserve">I am careful not to have any bad thoughts. </v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="str">
+        <v xml:space="preserve">My family life has been happy and free of arguments. </v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="str">
+        <v xml:space="preserve">Most salespeople would not cheat a customer. </v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="str">
+        <v xml:space="preserve">When people whisper, I feel they might be talking about me. </v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="str">
+        <v xml:space="preserve">I have the ability to concentrate without my mind wandering. </v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="str">
+        <v xml:space="preserve">I see bright pictures in my head when I don't want to. </v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="str">
+        <v xml:space="preserve">I can work for a reasonable length of time without becoming bored. </v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="str">
+        <v xml:space="preserve">I avoid speaking with people as much as I can. </v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="str">
+        <v xml:space="preserve">I usually do most of my daily tasks quite well. </v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="str">
+        <v xml:space="preserve">Sometimes I feel as if I am about to lose my mind. </v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="str">
+        <v xml:space="preserve">I seldom have a cough or sore throat. </v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="str">
+        <v xml:space="preserve">Life is extremely dull for me. </v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="str">
+        <v xml:space="preserve">I try to avoid jobs I dislike. </v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="str">
+        <v xml:space="preserve">Bossy people can expect an argument from me. </v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="str">
+        <v xml:space="preserve">No one does things for nothing. </v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="str">
+        <v xml:space="preserve">Most people treat me openly without hiding anything. </v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="str">
+        <v xml:space="preserve">Sometimes my own thoughts scare me so much that I think I'm going to pass out. </v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="str">
+        <v xml:space="preserve">My memory is as good as it ever was. </v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="str">
+        <v xml:space="preserve">I often take risks without stopping to think of the results. </v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="str">
+        <v xml:space="preserve">I dislike going out alone. </v>
+      </c>
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="str">
+        <v xml:space="preserve"> Poeple are better off with me,</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="str">
+        <v xml:space="preserve">I frequently experience terrible headaches. </v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="str">
+        <v xml:space="preserve">I often have pains in odd parts of my body. </v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="str">
+        <v xml:space="preserve">Something interesting happens to me almost every day. </v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="str">
+        <v xml:space="preserve">I am never cross with a loved one. </v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="str">
+        <v xml:space="preserve">I avoid quarreling with others. </v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="str">
+        <v xml:space="preserve">Gambling has no appeal to me. </v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="str">
+        <v xml:space="preserve">I often have the feeling that I am not liked. </v>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="str">
+        <v xml:space="preserve">I generally feel quite comfortable when being introduced to strangers. </v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="str">
+        <v xml:space="preserve">I can't always decide whether a minute or an hour has passed. </v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="str">
+        <v xml:space="preserve">I am not the type to be bored one minute and excited about something the next. </v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="str">
+        <v xml:space="preserve">I am happier alone than when with others. </v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="str">
+        <v xml:space="preserve">Most people find me an interesting person to talk with. </v>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="str">
+        <v xml:space="preserve">If things don't improve for me, I may have to do something violent or dangerous. </v>
+      </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="str">
+        <v xml:space="preserve">I hardly ever have "splitting" headaches. </v>
+      </c>
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="str">
+        <v xml:space="preserve">I often have trouble sleeping because I feel so sad. </v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="str">
+        <v xml:space="preserve">On some days I am more easily annoyed than on others. </v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="str">
+        <v xml:space="preserve">I like to run my own life without interference from anyone. </v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="str">
+        <v xml:space="preserve">I admire a successful professional thief. </v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="str">
+        <v xml:space="preserve">I never feel like a machine that someone else plugs in and uses. </v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="str">
+        <v xml:space="preserve">When I am startled my heart seems to skip a beat and stop. </v>
+      </c>
+      <c r="C128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="str">
+        <v xml:space="preserve">Things don't appear unusually different to me right now. </v>
+      </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="str">
+        <v xml:space="preserve">I am usually somewhat restless. </v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="str">
+        <v xml:space="preserve">I like talking to just about anyone I meet. </v>
+      </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="str">
+        <v xml:space="preserve">I do not consider myself worthy of other people's kindness. </v>
+      </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="str">
+        <v xml:space="preserve">There have been periods of time when I have used alcohol to excess. </v>
+      </c>
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="str">
+        <v xml:space="preserve">Sometimes I get so dizzy I can hardly stand up. </v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="str">
+        <v xml:space="preserve">I always look forward to a new day. </v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="str">
+        <v xml:space="preserve">I have never lied to anyone." </v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="str">
+        <v xml:space="preserve">I believe in obeying those in authority. </v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="str">
+        <v xml:space="preserve">I was not regarded as a behavior problem by my school teachers. </v>
+      </c>
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="str">
+        <v xml:space="preserve">I am greatly concerned with what people think about me. </v>
+      </c>
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="str">
+        <v xml:space="preserve">Emergencies seldom make me nervous. </v>
+      </c>
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="str">
+        <v xml:space="preserve">I often see shadows and think they are people or animals. </v>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="str">
+        <v xml:space="preserve">My feelings about people do not change much from day to day. </v>
+      </c>
+      <c r="C142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="str">
+        <v xml:space="preserve">I don't care whether or not the people around me are my friends. </v>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="str">
+        <v xml:space="preserve">I enjoy the respect of most people who know me. </v>
+      </c>
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="str">
+        <v xml:space="preserve">I have often used dangerous drugs or chemicals. </v>
+      </c>
+      <c r="C145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="str">
+        <v xml:space="preserve">I generally feel warm enough. </v>
+      </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
+        <v xml:space="preserve">I don't think things will ever get any better for me. </v>
+      </c>
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="str">
+        <v xml:space="preserve">Occasionally I use my friends to my own advantage. </v>
+      </c>
+      <c r="C148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="str">
+        <v xml:space="preserve">I dislike working for a person who is too strict. </v>
+      </c>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="str">
+        <v xml:space="preserve">Someone is always trying to trick you. </v>
+      </c>
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="str">
+        <v xml:space="preserve">I am sure that there is no gossiping about me. </v>
+      </c>
+      <c r="C151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="str">
+        <v xml:space="preserve">Little things often upset me. </v>
+      </c>
+      <c r="C152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="str">
+        <v xml:space="preserve">I usually know about what time it is. </v>
+      </c>
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="str">
+        <v xml:space="preserve">I often leave jobs unfinished. </v>
+      </c>
+      <c r="C154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="str">
+        <v xml:space="preserve">When I am not feeling well, I like to have someone around to comfort me. </v>
+      </c>
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="str">
+        <v xml:space="preserve">I am not a particularly kind person. </v>
+      </c>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="str">
+        <v xml:space="preserve">I would enjoy watching someone suffer great pain. </v>
+      </c>
+      <c r="C157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="str">
+        <v xml:space="preserve">I often have eye strain upon completing a day's work. </v>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="str">
+        <v xml:space="preserve">I believe that life is worth living. </v>
+      </c>
+      <c r="C159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="str">
+        <v xml:space="preserve">I don't like thinking about personal problems. </v>
+      </c>
+      <c r="C160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="str">
+        <v xml:space="preserve">I take great pains to be careful about other people's feelings. </v>
+      </c>
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="str">
+        <v xml:space="preserve">There are many things I consider wrong and wouldn't do. </v>
+      </c>
+      <c r="C162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="str">
+        <v xml:space="preserve">I often feel that others are trying to keep me out of their group. </v>
+      </c>
+      <c r="C163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="str">
+        <v xml:space="preserve">I remain calm even in the most trying situations. </v>
+      </c>
+      <c r="C164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="str">
+        <v xml:space="preserve">I often have the feeling that imaginary things are happening to me.. </v>
+      </c>
+      <c r="C165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="str">
+        <v xml:space="preserve">I generally make careful plans. </v>
+      </c>
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="str">
+        <v xml:space="preserve">I am not considered sociable. </v>
+      </c>
+      <c r="C167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="str">
+        <v xml:space="preserve">I think I would make a very good leader. </v>
+      </c>
+      <c r="C168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="str">
+        <v xml:space="preserve">I do not care what happens to me. </v>
+      </c>
+      <c r="C169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="str">
+        <v xml:space="preserve">My joints give me no trouble. </v>
+      </c>
+      <c r="C170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="str">
+        <v xml:space="preserve">I feel depressed most of the time. </v>
+      </c>
+      <c r="C171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="str">
+        <v xml:space="preserve">As a child I sometimes felt that my parents acted unfairly. </v>
+      </c>
+      <c r="C172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="str">
+        <v xml:space="preserve">If someone hurts me, I remember it until I can get even. </v>
+      </c>
+      <c r="C173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="str">
+        <v xml:space="preserve">People are always trying to get away with something. </v>
+      </c>
+      <c r="C174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="str">
+        <v xml:space="preserve">No one has a magical power to control me. </v>
+      </c>
+      <c r="C175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="str">
+        <v xml:space="preserve">I am sometimes disturbed by things that I know can't hurt me. </v>
+      </c>
+      <c r="C176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="str">
+        <v xml:space="preserve">Even when left alone, I can find my way around easily. </v>
+      </c>
+      <c r="C177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="str">
+        <v xml:space="preserve">At times I am rather careless. </v>
+      </c>
+      <c r="C178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="str">
+        <v xml:space="preserve">I enjoy being neighborly. </v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="str">
+        <v xml:space="preserve">I often show poor judgment about things. </v>
+      </c>
+      <c r="C180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="str">
+        <v xml:space="preserve">I sometimes have an urge to injure myself. </v>
+      </c>
+      <c r="C181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="str">
+        <v xml:space="preserve">I have poor blood circulation. </v>
+      </c>
+      <c r="C182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="str">
+        <v xml:space="preserve">I am quite content with my life as it is now. </v>
+      </c>
+      <c r="C183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="str">
+        <v xml:space="preserve">I admit my mistakes without ever trying to hide anything. </v>
+      </c>
+      <c r="C184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="str">
+        <v xml:space="preserve">I seldom feel like hitting anyone. </v>
+      </c>
+      <c r="C185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="str">
+        <v xml:space="preserve">I would feel very guilty if I were caught doing something wrong. </v>
+      </c>
+      <c r="C186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="str">
+        <v xml:space="preserve">I never feel comfortable eating food prepared by others. </v>
+      </c>
+      <c r="C187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="str">
+        <v xml:space="preserve">I don't worry over what might happen to me. </v>
+      </c>
+      <c r="C188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="str">
+        <v xml:space="preserve">At times my surroundings change so much that I think I'm somewhere else. </v>
+      </c>
+      <c r="C189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="str">
+        <v xml:space="preserve">I never take unnecessary chances. </v>
+      </c>
+      <c r="C190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="str">
+        <v xml:space="preserve">I don't feel I need other people. </v>
+      </c>
+      <c r="C191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="str">
+        <v xml:space="preserve">I feel capable of handling many difficult jobs. </v>
+      </c>
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="str">
+        <v xml:space="preserve">I have been in serious trouble with the law. </v>
+      </c>
+      <c r="C193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="str">
+        <v xml:space="preserve">I have a good deal of energy. </v>
+      </c>
+      <c r="C194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="str">
+        <v xml:space="preserve">I dislike doing anything new. </v>
+      </c>
+      <c r="C195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="str">
+        <v xml:space="preserve">My feelings are sometimes hurt by loved ones. </v>
+      </c>
+      <c r="C196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="str">
+        <v xml:space="preserve">I dislike being ordered around by anyone. </v>
+      </c>
+      <c r="C197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="str">
+        <v xml:space="preserve">I would do just about anything for money. </v>
+      </c>
+      <c r="C198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="str">
+        <v xml:space="preserve">If I fail at something I can only blame myself. </v>
+      </c>
+      <c r="C199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="str">
+        <v xml:space="preserve">I am usually too afraid to try anything new. </v>
+      </c>
+      <c r="C200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="str">
+        <v xml:space="preserve">I never see things that other people cannot see. </v>
+      </c>
+      <c r="C201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="str">
+        <v xml:space="preserve">I usually say the first thing that comes into my mind. </v>
+      </c>
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="str">
+        <v xml:space="preserve">I truly enjoy myself at social events. </v>
+      </c>
+      <c r="C203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="str">
+        <v xml:space="preserve">People don't like me because I have so many faults. </v>
+      </c>
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="str">
+        <v xml:space="preserve">I spend a great deal of time daydreaming about things that only I know. </v>
+      </c>
+      <c r="C205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="str">
+        <v xml:space="preserve">I lose my breath easily. </v>
+      </c>
+      <c r="C206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="str">
+        <v xml:space="preserve">I am usually a happy person. </v>
+      </c>
+      <c r="C207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="str">
+        <v xml:space="preserve">I've never let down a friend in any way. </v>
+      </c>
+      <c r="C208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="str">
+        <v xml:space="preserve">I do not easily lose patience with others. </v>
+      </c>
+      <c r="C209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Most people do what they can to help others.</v>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="str">
+        <v xml:space="preserve">I'm usually the first to be blamed if something goes wrong. </v>
+      </c>
+      <c r="C211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="str">
+        <v xml:space="preserve">Things that upset other people usually do not bother me. </v>
+      </c>
+      <c r="C212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="str">
+        <v>I cannot separate my daydreams from the real world.</v>
+      </c>
+      <c r="C213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="str">
+        <v>I have a well thought out reason for almost everything I undertake.</v>
+      </c>
+      <c r="C214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="str">
+        <v>I like to keep my ideas to myself.</v>
+      </c>
+      <c r="C215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="str">
+        <v>I consider myself to be a generous and pleasant person.</v>
+      </c>
+      <c r="C216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="str">
+        <v>I have been planning to do away with myself.</v>
+      </c>
+      <c r="C217" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="str">
+        <v>I never feel faint.</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Recent events have made me feel downhearted and miserable.</v>
+      </c>
+      <c r="C219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Sometimes I deliberately avoid a person I dislike.</v>
+      </c>
+      <c r="C220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="str">
+        <v>I get very irritated when someone disagrees with me.</v>
+      </c>
+      <c r="C221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="str">
+        <v>I sometimes have fun teasing animals.</v>
+      </c>
+      <c r="C222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="str">
+        <v>No one is trying to ruin my life.</v>
+      </c>
+      <c r="C223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="str">
+        <v>When I visit a strange place I become very upset.</v>
+      </c>
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="str">
+        <v>I can easily understand simple directions.</v>
+      </c>
+      <c r="C225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="str">
+        <v>I find it exciting to drive in a fast car.</v>
+      </c>
+      <c r="C226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="str">
+        <v>I enjoy doing things with friends whenever I am able.</v>
+      </c>
+      <c r="C227" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="str">
+        <v xml:space="preserve">I am not the type of person one remembers after one meeting. </v>
+      </c>
+      <c r="C228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="str">
+        <v>I do not care for anyone very much.</v>
+      </c>
+      <c r="C229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="str">
+        <v>I get a lot of headaches.</v>
+      </c>
+      <c r="C230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="str">
+        <v>I believe that I shall have my share of good luck.</v>
+      </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="str">
+        <v>I always meet my responsibilities.</v>
+      </c>
+      <c r="C232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="str">
+        <v>No one could ever say that I am hot-tempered.</v>
+      </c>
+      <c r="C233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Sooner or later people who break the law get caught.</v>
+      </c>
+      <c r="C234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="str">
+        <v>If certain individuals had not interfered, I would be more successful today.</v>
+      </c>
+      <c r="C235" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="str">
+        <v>I do not panic more quickly than the average person.</v>
+      </c>
+      <c r="C236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Many times I can hear mysterious voices all around me.</v>
+      </c>
+      <c r="C237" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="str">
+        <v>I seldom do silly things without thinking.</v>
+      </c>
+      <c r="C238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="str">
+        <v>I make little effort to meet new people.</v>
+      </c>
+      <c r="C239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Much of what I say is worth paying attention to.</v>
+      </c>
+      <c r="C240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="str">
+        <v>I always have difficulty sleeping.</v>
+      </c>
+      <c r="C241" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C241"/>
   </ignoredErrors>
 </worksheet>
 </file>